--- a/ResultadoEleicoesDistritos/AVEIRO_OLIVEIRA DO BAIRRO.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_OLIVEIRA DO BAIRRO.xlsx
@@ -597,64 +597,64 @@
         <v>6269</v>
       </c>
       <c r="H2" t="n">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I2" t="n">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="J2" t="n">
-        <v>2539</v>
+        <v>2603</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="M2" t="n">
         <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
         <v>7</v>
       </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
       <c r="R2" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="S2" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="T2" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="U2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>4069</v>
+        <v>4072</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4012</v>
+        <v>3939</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
